--- a/Data/EC/NIT-9011772725.xlsx
+++ b/Data/EC/NIT-9011772725.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C78F0123-D524-4B91-A207-1F9EDD116B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C28CF00-9162-4607-A95D-E2043CCCDE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{55B729B0-8A21-4A52-A34B-6D21FB61D1AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{510F7F0D-05B0-4A3D-8012-3F820C620D77}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,52 +71,52 @@
     <t>RAIN ALEXANDER DIAZ RODRIGUEZ</t>
   </si>
   <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
     <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -160,7 +160,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,7 +530,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934082AC-44E1-2350-35BA-E47142C19BF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC4693B0-FDAE-C230-AB20-5C4C4BA58AD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,28 +881,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C7A86C-1283-4F4E-B74F-B8A171511C6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9890D743-2443-4C58-8422-9B4DEE6334BE}">
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -915,7 +915,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -926,7 +926,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -937,7 +937,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -948,8 +948,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
@@ -964,8 +964,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -980,8 +980,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
@@ -996,8 +996,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>30</v>
       </c>
@@ -1016,7 +1016,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1059,16 +1059,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>27840</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1085,13 +1085,13 @@
         <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1108,13 +1108,13 @@
         <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1131,13 +1131,13 @@
         <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1154,13 +1154,13 @@
         <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1177,13 +1177,13 @@
         <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1200,13 +1200,13 @@
         <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1223,13 +1223,13 @@
         <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1246,13 +1246,13 @@
         <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1269,13 +1269,13 @@
         <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1292,13 +1292,13 @@
         <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1315,13 +1315,13 @@
         <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1338,13 +1338,13 @@
         <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1361,13 +1361,13 @@
         <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1384,13 +1384,13 @@
         <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="21" t="s">
         <v>8</v>
       </c>
@@ -1404,16 +1404,16 @@
         <v>26</v>
       </c>
       <c r="F31" s="24">
-        <v>27840</v>
+        <v>46400</v>
       </c>
       <c r="G31" s="24">
-        <v>1160000</v>
+        <v>1800000</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="26"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="32" t="s">
         <v>36</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="32" t="s">
         <v>35</v>
       </c>

--- a/Data/EC/NIT-9011772725.xlsx
+++ b/Data/EC/NIT-9011772725.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C28CF00-9162-4607-A95D-E2043CCCDE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C19CDB2-3345-448D-A553-BEB29388C467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{510F7F0D-05B0-4A3D-8012-3F820C620D77}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9DE35637-B8D3-4962-AC80-A85688038413}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,52 +71,52 @@
     <t>RAIN ALEXANDER DIAZ RODRIGUEZ</t>
   </si>
   <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
     <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -215,7 +215,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -228,9 +230,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -430,23 +430,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,10 +474,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,7 +530,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC4693B0-FDAE-C230-AB20-5C4C4BA58AD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02FD42E-8798-A73D-EDE7-B352805F19BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,7 +881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9890D743-2443-4C58-8422-9B4DEE6334BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763632B4-23CE-48FA-AFC8-52A217732A52}">
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27840</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1085,7 +1085,7 @@
         <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1108,7 +1108,7 @@
         <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1131,7 +1131,7 @@
         <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1154,7 +1154,7 @@
         <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1177,7 +1177,7 @@
         <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1200,7 +1200,7 @@
         <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1223,7 +1223,7 @@
         <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1246,7 +1246,7 @@
         <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1269,7 +1269,7 @@
         <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1292,7 +1292,7 @@
         <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1315,7 +1315,7 @@
         <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1338,7 +1338,7 @@
         <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1361,7 +1361,7 @@
         <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1384,7 +1384,7 @@
         <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1404,10 +1404,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="24">
-        <v>46400</v>
+        <v>27840</v>
       </c>
       <c r="G31" s="24">
-        <v>1800000</v>
+        <v>1160000</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>

--- a/Data/EC/NIT-9011772725.xlsx
+++ b/Data/EC/NIT-9011772725.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C19CDB2-3345-448D-A553-BEB29388C467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A8BCDF5-A11A-400D-891D-0A505556D9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9DE35637-B8D3-4962-AC80-A85688038413}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D3488BEB-BCEA-4D60-864C-95C31CF7FF79}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -215,9 +215,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -230,7 +228,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -424,29 +424,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,19 +465,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,7 +536,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02FD42E-8798-A73D-EDE7-B352805F19BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC64E623-8261-2556-B1A9-74411A5BE240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763632B4-23CE-48FA-AFC8-52A217732A52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE36CB7D-CA22-4EF0-ACCA-82C674D1A00D}">
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -904,49 +910,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -954,7 +960,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -970,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9011772725</v>
       </c>
@@ -986,7 +992,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>723840</v>
       </c>
@@ -1055,18 +1061,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>46400</v>
       </c>
-      <c r="G16" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1078,18 +1084,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>46400</v>
       </c>
-      <c r="G17" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1101,18 +1107,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>46400</v>
       </c>
-      <c r="G18" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="G18" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1124,18 +1130,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>46400</v>
       </c>
-      <c r="G19" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1147,18 +1153,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>46400</v>
       </c>
-      <c r="G20" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1170,18 +1176,18 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>46400</v>
       </c>
-      <c r="G21" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="G21" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1193,18 +1199,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>46400</v>
       </c>
-      <c r="G22" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1216,18 +1222,18 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>46400</v>
       </c>
-      <c r="G23" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="G23" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1239,18 +1245,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>46400</v>
       </c>
-      <c r="G24" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="G24" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1262,18 +1268,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>46400</v>
       </c>
-      <c r="G25" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="G25" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1285,18 +1291,18 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>46400</v>
       </c>
-      <c r="G26" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="G26" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1308,18 +1314,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>46400</v>
       </c>
-      <c r="G27" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="G27" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1331,18 +1337,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>46400</v>
       </c>
-      <c r="G28" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="G28" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1354,18 +1360,18 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>46400</v>
       </c>
-      <c r="G29" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="G29" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1377,47 +1383,47 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>46400</v>
       </c>
-      <c r="G30" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="G30" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="22" t="s">
+      <c r="B31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="26">
         <v>27840</v>
       </c>
-      <c r="G31" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="G31" s="26">
+        <v>1160000</v>
+      </c>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="32"/>
+      <c r="C36" s="34"/>
       <c r="H36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1425,10 +1431,10 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="34"/>
       <c r="H37" s="1" t="s">
         <v>37</v>
       </c>
